--- a/ADC/Trimpot's response time.xlsx
+++ b/ADC/Trimpot's response time.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Average of time to read the trimpot</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>milliseconds</t>
+  </si>
+  <si>
+    <t>histograma</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
   <dimension ref="B2:M2018"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,6 +502,9 @@
       <c r="B7">
         <v>1.4996528625499999E-4</v>
       </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
       <c r="I7">
         <v>1.57117843628E-4</v>
       </c>
